--- a/linkedin/sample.xlsx
+++ b/linkedin/sample.xlsx
@@ -14,42 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Edu</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Edu</t>
-  </si>
-  <si>
-    <t>_id</t>
+    <t>{'college': 'Jadavpur University', 'degree': 'Bachelor of Engineering - BE', 'branch': 'Computer Science and Engineering', 'duration': '2016 – 2020'}</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>ARJUN MURMU</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{'college': 'Jadavpur University', 'degree': 'Bachelor of Engineering - BE', 'branch': 'Computer Science and Engineering', 'duration': '2016 – 2020'}</t>
-  </si>
-  <si>
-    <t>{'$oid': '60282ed043a29a7b8cb5303d'}</t>
-  </si>
-  <si>
-    <t>Sushan Chakraborty</t>
-  </si>
-  <si>
-    <t>{'designation': 'Computer Software', 'company': 'Cognizant', 'employ_duration': '5 yrs 6 mos', 'dates_employed': 'Sep 2015 – Present'}</t>
-  </si>
-  <si>
-    <t>{'college': 'Jadavpur University', 'degree': 'Master’s Degree', 'branch': 'Computer Science', 'duration': '2012'}</t>
-  </si>
-  <si>
-    <t>{'$oid': '60283b8e43a29a7b8cb53057'}</t>
   </si>
 </sst>
 </file>
@@ -407,62 +389,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/linkedin/sample.xlsx
+++ b/linkedin/sample.xlsx
@@ -14,24 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
   <si>
     <t>Edu</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>ARJUN MURMU</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>{'college': 'Jadavpur University', 'degree': 'Bachelor of Engineering - BE', 'branch': 'Computer Science and Engineering', 'duration': '2016 – 2020'}</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>ARJUN MURMU</t>
+    <t>Ankit Roy</t>
+  </si>
+  <si>
+    <t>{'college': 'Jadavpur University', 'degree': 'Bachelor of Engineering - BE', 'branch': 'Computer Science', 'duration': '2015 – 2019'}</t>
+  </si>
+  <si>
+    <t>soumi paul</t>
+  </si>
+  <si>
+    <t>{'college': 'Jadavpur University', 'degree': 'Doctor of Philosophy (PhD)', 'branch': 'Computer Science', 'duration': '2014 – 2019'}</t>
+  </si>
+  <si>
+    <t>Anirban Das</t>
+  </si>
+  <si>
+    <t>{'designation': 'Student Partner 18', 'company': 'Internshala        Part-time', 'employ_duration': '4 mos', 'dates_employed': 'May 2020 – Aug 2020'}</t>
+  </si>
+  <si>
+    <t>{'college': 'Jadavpur University', 'degree': 'Bachelor of Engineering - BE', 'branch': 'Computer Science', 'duration': '2019 – 2023'}</t>
+  </si>
+  <si>
+    <t>Sushan Chakraborty</t>
+  </si>
+  <si>
+    <t>{'designation': 'Computer Software', 'company': 'Cognizant', 'employ_duration': '5 yrs 7 mos', 'dates_employed': 'Sep 2015 – Present'}</t>
+  </si>
+  <si>
+    <t>{'college': 'Jadavpur University', 'degree': 'Master’s Degree', 'branch': 'Computer Science', 'duration': '2012'}</t>
   </si>
 </sst>
 </file>
@@ -389,39 +419,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
         <v>1</v>
       </c>
+      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
